--- a/const/game_numerics/dinosaurs.xlsx
+++ b/const/game_numerics/dinosaurs.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="28800" windowHeight="17940"/>
+    <workbookView xWindow="1360" yWindow="1060" windowWidth="32000" windowHeight="18360" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="dinosaurs" sheetId="1" r:id="rId1"/>
-    <sheet name="experience" sheetId="4" r:id="rId2"/>
-    <sheet name="skills" sheetId="2" r:id="rId3"/>
-    <sheet name="恐龙2" sheetId="3" r:id="rId4"/>
+    <sheet name="恐龙" sheetId="1" r:id="rId1"/>
+    <sheet name="dinosaurs" sheetId="3" r:id="rId2"/>
+    <sheet name="experience" sheetId="4" r:id="rId3"/>
+    <sheet name="skills" sheetId="2" r:id="rId4"/>
+    <sheet name="food" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -481,6 +482,24 @@
   <si>
     <t>y</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pitaya</t>
+  </si>
+  <si>
+    <t>pineapple</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>durian</t>
   </si>
 </sst>
 </file>
@@ -548,8 +567,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,9 +610,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="9">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -877,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -994,67 +1037,67 @@
         <v>25</v>
       </c>
       <c r="E2" s="2">
-        <f>恐龙2!E2*0.8</f>
+        <f>dinosaurs!E2*0.8</f>
         <v>16</v>
       </c>
       <c r="F2" s="2">
-        <f>恐龙2!F2*0.8</f>
+        <f>dinosaurs!F2*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="G2" s="2">
-        <f>恐龙2!G2*0.8</f>
+        <f>dinosaurs!G2*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="H2" s="2">
-        <f>恐龙2!H2*0.8</f>
+        <f>dinosaurs!H2*0.8</f>
         <v>16</v>
       </c>
       <c r="I2" s="2">
-        <f>恐龙2!E2*1.2</f>
+        <f>dinosaurs!E2*1.2</f>
         <v>24</v>
       </c>
       <c r="J2" s="2">
-        <f>恐龙2!F2*1.2</f>
+        <f>dinosaurs!F2*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="K2" s="2">
-        <f>恐龙2!G2*1.2</f>
+        <f>dinosaurs!G2*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="L2" s="2">
-        <f>恐龙2!H2*1.2</f>
+        <f>dinosaurs!H2*1.2</f>
         <v>24</v>
       </c>
       <c r="M2" s="2">
-        <f>恐龙2!I2*0.8</f>
+        <f>dinosaurs!I2*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N2" s="2">
-        <f>恐龙2!I2*1.2</f>
+        <f>dinosaurs!I2*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O2" s="2">
-        <f>恐龙2!J2*0.8</f>
+        <f>dinosaurs!J2*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="P2" s="2">
-        <f>恐龙2!J2*1.2</f>
+        <f>dinosaurs!J2*1.2</f>
         <v>2.64</v>
       </c>
       <c r="Q2" s="2">
-        <f>恐龙2!K2*0.8</f>
+        <f>dinosaurs!K2*0.8</f>
         <v>1.2800000000000002</v>
       </c>
       <c r="R2" s="2">
-        <f>恐龙2!K2*1.2</f>
+        <f>dinosaurs!K2*1.2</f>
         <v>1.92</v>
       </c>
       <c r="S2" s="2">
-        <f>恐龙2!L2*0.8</f>
+        <f>dinosaurs!L2*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="T2" s="2">
-        <f>恐龙2!L2*1.2</f>
+        <f>dinosaurs!L2*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="U2" s="2">
@@ -1087,67 +1130,67 @@
         <v>29</v>
       </c>
       <c r="E3" s="2">
-        <f>恐龙2!E3*0.8</f>
+        <f>dinosaurs!E3*0.8</f>
         <v>20</v>
       </c>
       <c r="F3" s="2">
-        <f>恐龙2!F3*0.8</f>
+        <f>dinosaurs!F3*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G3" s="2">
-        <f>恐龙2!G3*0.8</f>
+        <f>dinosaurs!G3*0.8</f>
         <v>6.4</v>
       </c>
       <c r="H3" s="2">
-        <f>恐龙2!H3*0.8</f>
+        <f>dinosaurs!H3*0.8</f>
         <v>14.4</v>
       </c>
       <c r="I3" s="2">
-        <f>恐龙2!E3*1.2</f>
+        <f>dinosaurs!E3*1.2</f>
         <v>30</v>
       </c>
       <c r="J3" s="2">
-        <f>恐龙2!F3*1.2</f>
+        <f>dinosaurs!F3*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K3" s="2">
-        <f>恐龙2!G3*1.2</f>
+        <f>dinosaurs!G3*1.2</f>
         <v>9.6</v>
       </c>
       <c r="L3" s="2">
-        <f>恐龙2!H3*1.2</f>
+        <f>dinosaurs!H3*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="M3" s="2">
-        <f>恐龙2!I3*0.8</f>
+        <f>dinosaurs!I3*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N3" s="2">
-        <f>恐龙2!I3*1.2</f>
+        <f>dinosaurs!I3*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O3" s="2">
-        <f>恐龙2!J3*0.8</f>
+        <f>dinosaurs!J3*0.8</f>
         <v>2.08</v>
       </c>
       <c r="P3" s="2">
-        <f>恐龙2!J3*1.2</f>
+        <f>dinosaurs!J3*1.2</f>
         <v>3.12</v>
       </c>
       <c r="Q3" s="2">
-        <f>恐龙2!K3*0.8</f>
+        <f>dinosaurs!K3*0.8</f>
         <v>1.4400000000000002</v>
       </c>
       <c r="R3" s="2">
-        <f>恐龙2!K3*1.2</f>
+        <f>dinosaurs!K3*1.2</f>
         <v>2.16</v>
       </c>
       <c r="S3" s="2">
-        <f>恐龙2!L3*0.8</f>
+        <f>dinosaurs!L3*0.8</f>
         <v>1.92</v>
       </c>
       <c r="T3" s="2">
-        <f>恐龙2!L3*1.2</f>
+        <f>dinosaurs!L3*1.2</f>
         <v>2.88</v>
       </c>
       <c r="U3" s="2">
@@ -1180,67 +1223,67 @@
         <v>33</v>
       </c>
       <c r="E4" s="2">
-        <f>恐龙2!E4*0.8</f>
+        <f>dinosaurs!E4*0.8</f>
         <v>40</v>
       </c>
       <c r="F4" s="2">
-        <f>恐龙2!F4*0.8</f>
+        <f>dinosaurs!F4*0.8</f>
         <v>8</v>
       </c>
       <c r="G4" s="2">
-        <f>恐龙2!G4*0.8</f>
+        <f>dinosaurs!G4*0.8</f>
         <v>8</v>
       </c>
       <c r="H4" s="2">
-        <f>恐龙2!H4*0.8</f>
+        <f>dinosaurs!H4*0.8</f>
         <v>3.2</v>
       </c>
       <c r="I4" s="2">
-        <f>恐龙2!E4*1.2</f>
+        <f>dinosaurs!E4*1.2</f>
         <v>60</v>
       </c>
       <c r="J4" s="2">
-        <f>恐龙2!F4*1.2</f>
+        <f>dinosaurs!F4*1.2</f>
         <v>12</v>
       </c>
       <c r="K4" s="2">
-        <f>恐龙2!G4*1.2</f>
+        <f>dinosaurs!G4*1.2</f>
         <v>12</v>
       </c>
       <c r="L4" s="2">
-        <f>恐龙2!H4*1.2</f>
+        <f>dinosaurs!H4*1.2</f>
         <v>4.8</v>
       </c>
       <c r="M4" s="2">
-        <f>恐龙2!I4*0.8</f>
+        <f>dinosaurs!I4*0.8</f>
         <v>8</v>
       </c>
       <c r="N4" s="2">
-        <f>恐龙2!I4*1.2</f>
+        <f>dinosaurs!I4*1.2</f>
         <v>12</v>
       </c>
       <c r="O4" s="2">
-        <f>恐龙2!J4*0.8</f>
+        <f>dinosaurs!J4*0.8</f>
         <v>1.6</v>
       </c>
       <c r="P4" s="2">
-        <f>恐龙2!J4*1.2</f>
+        <f>dinosaurs!J4*1.2</f>
         <v>2.4</v>
       </c>
       <c r="Q4" s="2">
-        <f>恐龙2!K4*0.8</f>
+        <f>dinosaurs!K4*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R4" s="2">
-        <f>恐龙2!K4*1.2</f>
+        <f>dinosaurs!K4*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S4" s="2">
-        <f>恐龙2!L4*0.8</f>
+        <f>dinosaurs!L4*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="T4" s="2">
-        <f>恐龙2!L4*1.2</f>
+        <f>dinosaurs!L4*1.2</f>
         <v>1.68</v>
       </c>
       <c r="U4" s="2">
@@ -1273,67 +1316,67 @@
         <v>38</v>
       </c>
       <c r="E5" s="2">
-        <f>恐龙2!E5*0.8</f>
+        <f>dinosaurs!E5*0.8</f>
         <v>20</v>
       </c>
       <c r="F5" s="2">
-        <f>恐龙2!F5*0.8</f>
+        <f>dinosaurs!F5*0.8</f>
         <v>12.8</v>
       </c>
       <c r="G5" s="2">
-        <f>恐龙2!G5*0.8</f>
+        <f>dinosaurs!G5*0.8</f>
         <v>8</v>
       </c>
       <c r="H5" s="2">
-        <f>恐龙2!H5*0.8</f>
+        <f>dinosaurs!H5*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="I5" s="2">
-        <f>恐龙2!E5*1.2</f>
+        <f>dinosaurs!E5*1.2</f>
         <v>30</v>
       </c>
       <c r="J5" s="2">
-        <f>恐龙2!F5*1.2</f>
+        <f>dinosaurs!F5*1.2</f>
         <v>19.2</v>
       </c>
       <c r="K5" s="2">
-        <f>恐龙2!G5*1.2</f>
+        <f>dinosaurs!G5*1.2</f>
         <v>12</v>
       </c>
       <c r="L5" s="2">
-        <f>恐龙2!H5*1.2</f>
+        <f>dinosaurs!H5*1.2</f>
         <v>16.8</v>
       </c>
       <c r="M5" s="2">
-        <f>恐龙2!I5*0.8</f>
+        <f>dinosaurs!I5*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N5" s="2">
-        <f>恐龙2!I5*1.2</f>
+        <f>dinosaurs!I5*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O5" s="2">
-        <f>恐龙2!J5*0.8</f>
+        <f>dinosaurs!J5*0.8</f>
         <v>1.2800000000000002</v>
       </c>
       <c r="P5" s="2">
-        <f>恐龙2!J5*1.2</f>
+        <f>dinosaurs!J5*1.2</f>
         <v>1.92</v>
       </c>
       <c r="Q5" s="2">
-        <f>恐龙2!K5*0.8</f>
+        <f>dinosaurs!K5*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R5" s="2">
-        <f>恐龙2!K5*1.2</f>
+        <f>dinosaurs!K5*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S5" s="2">
-        <f>恐龙2!L5*0.8</f>
+        <f>dinosaurs!L5*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="T5" s="2">
-        <f>恐龙2!L5*1.2</f>
+        <f>dinosaurs!L5*1.2</f>
         <v>1.68</v>
       </c>
       <c r="U5" s="2">
@@ -1366,67 +1409,67 @@
         <v>42</v>
       </c>
       <c r="E6" s="2">
-        <f>恐龙2!E6*0.8</f>
+        <f>dinosaurs!E6*0.8</f>
         <v>16</v>
       </c>
       <c r="F6" s="2">
-        <f>恐龙2!F6*0.8</f>
+        <f>dinosaurs!F6*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G6" s="2">
-        <f>恐龙2!G6*0.8</f>
+        <f>dinosaurs!G6*0.8</f>
         <v>12.8</v>
       </c>
       <c r="H6" s="2">
-        <f>恐龙2!H6*0.8</f>
+        <f>dinosaurs!H6*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I6" s="2">
-        <f>恐龙2!E6*1.2</f>
+        <f>dinosaurs!E6*1.2</f>
         <v>24</v>
       </c>
       <c r="J6" s="2">
-        <f>恐龙2!F6*1.2</f>
+        <f>dinosaurs!F6*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K6" s="2">
-        <f>恐龙2!G6*1.2</f>
+        <f>dinosaurs!G6*1.2</f>
         <v>19.2</v>
       </c>
       <c r="L6" s="2">
-        <f>恐龙2!H6*1.2</f>
+        <f>dinosaurs!H6*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M6" s="2">
-        <f>恐龙2!I6*0.8</f>
+        <f>dinosaurs!I6*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N6" s="2">
-        <f>恐龙2!I6*1.2</f>
+        <f>dinosaurs!I6*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O6" s="2">
-        <f>恐龙2!J6*0.8</f>
+        <f>dinosaurs!J6*0.8</f>
         <v>1.92</v>
       </c>
       <c r="P6" s="2">
-        <f>恐龙2!J6*1.2</f>
+        <f>dinosaurs!J6*1.2</f>
         <v>2.88</v>
       </c>
       <c r="Q6" s="2">
-        <f>恐龙2!K6*0.8</f>
+        <f>dinosaurs!K6*0.8</f>
         <v>2.08</v>
       </c>
       <c r="R6" s="2">
-        <f>恐龙2!K6*1.2</f>
+        <f>dinosaurs!K6*1.2</f>
         <v>3.12</v>
       </c>
       <c r="S6" s="2">
-        <f>恐龙2!L6*0.8</f>
+        <f>dinosaurs!L6*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="T6" s="2">
-        <f>恐龙2!L6*1.2</f>
+        <f>dinosaurs!L6*1.2</f>
         <v>2.64</v>
       </c>
       <c r="U6" s="2">
@@ -1459,67 +1502,67 @@
         <v>60</v>
       </c>
       <c r="E7" s="2">
-        <f>恐龙2!E7*0.8</f>
+        <f>dinosaurs!E7*0.8</f>
         <v>20</v>
       </c>
       <c r="F7" s="2">
-        <f>恐龙2!F7*0.8</f>
+        <f>dinosaurs!F7*0.8</f>
         <v>14.4</v>
       </c>
       <c r="G7" s="2">
-        <f>恐龙2!G7*0.8</f>
+        <f>dinosaurs!G7*0.8</f>
         <v>8</v>
       </c>
       <c r="H7" s="2">
-        <f>恐龙2!H7*0.8</f>
+        <f>dinosaurs!H7*0.8</f>
         <v>12.8</v>
       </c>
       <c r="I7" s="2">
-        <f>恐龙2!E7*1.2</f>
+        <f>dinosaurs!E7*1.2</f>
         <v>30</v>
       </c>
       <c r="J7" s="2">
-        <f>恐龙2!F7*1.2</f>
+        <f>dinosaurs!F7*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="K7" s="2">
-        <f>恐龙2!G7*1.2</f>
+        <f>dinosaurs!G7*1.2</f>
         <v>12</v>
       </c>
       <c r="L7" s="2">
-        <f>恐龙2!H7*1.2</f>
+        <f>dinosaurs!H7*1.2</f>
         <v>19.2</v>
       </c>
       <c r="M7" s="2">
-        <f>恐龙2!I7*0.8</f>
+        <f>dinosaurs!I7*0.8</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N7" s="2">
-        <f>恐龙2!I7*1.2</f>
+        <f>dinosaurs!I7*1.2</f>
         <v>8.4</v>
       </c>
       <c r="O7" s="2">
-        <f>恐龙2!J7*0.8</f>
+        <f>dinosaurs!J7*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="P7" s="2">
-        <f>恐龙2!J7*1.2</f>
+        <f>dinosaurs!J7*1.2</f>
         <v>3.36</v>
       </c>
       <c r="Q7" s="2">
-        <f>恐龙2!K7*0.8</f>
+        <f>dinosaurs!K7*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R7" s="2">
-        <f>恐龙2!K7*1.2</f>
+        <f>dinosaurs!K7*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S7" s="2">
-        <f>恐龙2!L7*0.8</f>
+        <f>dinosaurs!L7*0.8</f>
         <v>2.08</v>
       </c>
       <c r="T7" s="2">
-        <f>恐龙2!L7*1.2</f>
+        <f>dinosaurs!L7*1.2</f>
         <v>3.12</v>
       </c>
       <c r="U7" s="2">
@@ -1552,67 +1595,67 @@
         <v>51</v>
       </c>
       <c r="E8" s="2">
-        <f>恐龙2!E8*0.8</f>
+        <f>dinosaurs!E8*0.8</f>
         <v>24</v>
       </c>
       <c r="F8" s="2">
-        <f>恐龙2!F8*0.8</f>
+        <f>dinosaurs!F8*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G8" s="2">
-        <f>恐龙2!G8*0.8</f>
+        <f>dinosaurs!G8*0.8</f>
         <v>14.4</v>
       </c>
       <c r="H8" s="2">
-        <f>恐龙2!H8*0.8</f>
+        <f>dinosaurs!H8*0.8</f>
         <v>14.4</v>
       </c>
       <c r="I8" s="2">
-        <f>恐龙2!E8*1.2</f>
+        <f>dinosaurs!E8*1.2</f>
         <v>36</v>
       </c>
       <c r="J8" s="2">
-        <f>恐龙2!F8*1.2</f>
+        <f>dinosaurs!F8*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K8" s="2">
-        <f>恐龙2!G8*1.2</f>
+        <f>dinosaurs!G8*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="L8" s="2">
-        <f>恐龙2!H8*1.2</f>
+        <f>dinosaurs!H8*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="M8" s="2">
-        <f>恐龙2!I8*0.8</f>
+        <f>dinosaurs!I8*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N8" s="2">
-        <f>恐龙2!I8*1.2</f>
+        <f>dinosaurs!I8*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O8" s="2">
-        <f>恐龙2!J8*0.8</f>
+        <f>dinosaurs!J8*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="P8" s="2">
-        <f>恐龙2!J8*1.2</f>
+        <f>dinosaurs!J8*1.2</f>
         <v>1.68</v>
       </c>
       <c r="Q8" s="2">
-        <f>恐龙2!K8*0.8</f>
+        <f>dinosaurs!K8*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="R8" s="2">
-        <f>恐龙2!K8*1.2</f>
+        <f>dinosaurs!K8*1.2</f>
         <v>3.36</v>
       </c>
       <c r="S8" s="2">
-        <f>恐龙2!L8*0.8</f>
+        <f>dinosaurs!L8*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="T8" s="2">
-        <f>恐龙2!L8*1.2</f>
+        <f>dinosaurs!L8*1.2</f>
         <v>3.36</v>
       </c>
       <c r="U8" s="2">
@@ -1645,67 +1688,67 @@
         <v>56</v>
       </c>
       <c r="E9" s="2">
-        <f>恐龙2!E9*0.8</f>
+        <f>dinosaurs!E9*0.8</f>
         <v>20</v>
       </c>
       <c r="F9" s="2">
-        <f>恐龙2!F9*0.8</f>
+        <f>dinosaurs!F9*0.8</f>
         <v>14.4</v>
       </c>
       <c r="G9" s="2">
-        <f>恐龙2!G9*0.8</f>
+        <f>dinosaurs!G9*0.8</f>
         <v>8</v>
       </c>
       <c r="H9" s="2">
-        <f>恐龙2!H9*0.8</f>
+        <f>dinosaurs!H9*0.8</f>
         <v>16</v>
       </c>
       <c r="I9" s="2">
-        <f>恐龙2!E9*1.2</f>
+        <f>dinosaurs!E9*1.2</f>
         <v>30</v>
       </c>
       <c r="J9" s="2">
-        <f>恐龙2!F9*1.2</f>
+        <f>dinosaurs!F9*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="K9" s="2">
-        <f>恐龙2!G9*1.2</f>
+        <f>dinosaurs!G9*1.2</f>
         <v>12</v>
       </c>
       <c r="L9" s="2">
-        <f>恐龙2!H9*1.2</f>
+        <f>dinosaurs!H9*1.2</f>
         <v>24</v>
       </c>
       <c r="M9" s="2">
-        <f>恐龙2!I9*0.8</f>
+        <f>dinosaurs!I9*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N9" s="2">
-        <f>恐龙2!I9*1.2</f>
+        <f>dinosaurs!I9*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O9" s="2">
-        <f>恐龙2!J9*0.8</f>
+        <f>dinosaurs!J9*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="P9" s="2">
-        <f>恐龙2!J9*1.2</f>
+        <f>dinosaurs!J9*1.2</f>
         <v>3.36</v>
       </c>
       <c r="Q9" s="2">
-        <f>恐龙2!K9*0.8</f>
+        <f>dinosaurs!K9*0.8</f>
         <v>1.6</v>
       </c>
       <c r="R9" s="2">
-        <f>恐龙2!K9*1.2</f>
+        <f>dinosaurs!K9*1.2</f>
         <v>2.4</v>
       </c>
       <c r="S9" s="2">
-        <f>恐龙2!L9*0.8</f>
+        <f>dinosaurs!L9*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="T9" s="2">
-        <f>恐龙2!L9*1.2</f>
+        <f>dinosaurs!L9*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="U9" s="2">
@@ -1738,67 +1781,67 @@
         <v>46</v>
       </c>
       <c r="E10" s="2">
-        <f>恐龙2!E10*0.8</f>
+        <f>dinosaurs!E10*0.8</f>
         <v>32</v>
       </c>
       <c r="F10" s="2">
-        <f>恐龙2!F10*0.8</f>
+        <f>dinosaurs!F10*0.8</f>
         <v>16</v>
       </c>
       <c r="G10" s="2">
-        <f>恐龙2!G10*0.8</f>
+        <f>dinosaurs!G10*0.8</f>
         <v>6.4</v>
       </c>
       <c r="H10" s="2">
-        <f>恐龙2!H10*0.8</f>
+        <f>dinosaurs!H10*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I10" s="2">
-        <f>恐龙2!E10*1.2</f>
+        <f>dinosaurs!E10*1.2</f>
         <v>48</v>
       </c>
       <c r="J10" s="2">
-        <f>恐龙2!F10*1.2</f>
+        <f>dinosaurs!F10*1.2</f>
         <v>24</v>
       </c>
       <c r="K10" s="2">
-        <f>恐龙2!G10*1.2</f>
+        <f>dinosaurs!G10*1.2</f>
         <v>9.6</v>
       </c>
       <c r="L10" s="2">
-        <f>恐龙2!H10*1.2</f>
+        <f>dinosaurs!H10*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M10" s="2">
-        <f>恐龙2!I10*0.8</f>
+        <f>dinosaurs!I10*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N10" s="2">
-        <f>恐龙2!I10*1.2</f>
+        <f>dinosaurs!I10*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O10" s="2">
-        <f>恐龙2!J10*0.8</f>
+        <f>dinosaurs!J10*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P10" s="2">
-        <f>恐龙2!J10*1.2</f>
+        <f>dinosaurs!J10*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q10" s="2">
-        <f>恐龙2!K10*0.8</f>
+        <f>dinosaurs!K10*0.8</f>
         <v>1.4400000000000002</v>
       </c>
       <c r="R10" s="2">
-        <f>恐龙2!K10*1.2</f>
+        <f>dinosaurs!K10*1.2</f>
         <v>2.16</v>
       </c>
       <c r="S10" s="2">
-        <f>恐龙2!L10*0.8</f>
+        <f>dinosaurs!L10*0.8</f>
         <v>0.96</v>
       </c>
       <c r="T10" s="2">
-        <f>恐龙2!L10*1.2</f>
+        <f>dinosaurs!L10*1.2</f>
         <v>1.44</v>
       </c>
       <c r="U10" s="2">
@@ -1831,67 +1874,67 @@
         <v>63</v>
       </c>
       <c r="E11" s="2">
-        <f>恐龙2!E11*0.8</f>
+        <f>dinosaurs!E11*0.8</f>
         <v>36</v>
       </c>
       <c r="F11" s="2">
-        <f>恐龙2!F11*0.8</f>
+        <f>dinosaurs!F11*0.8</f>
         <v>16</v>
       </c>
       <c r="G11" s="2">
-        <f>恐龙2!G11*0.8</f>
+        <f>dinosaurs!G11*0.8</f>
         <v>24</v>
       </c>
       <c r="H11" s="2">
-        <f>恐龙2!H11*0.8</f>
+        <f>dinosaurs!H11*0.8</f>
         <v>8</v>
       </c>
       <c r="I11" s="2">
-        <f>恐龙2!E11*1.2</f>
+        <f>dinosaurs!E11*1.2</f>
         <v>54</v>
       </c>
       <c r="J11" s="2">
-        <f>恐龙2!F11*1.2</f>
+        <f>dinosaurs!F11*1.2</f>
         <v>24</v>
       </c>
       <c r="K11" s="2">
-        <f>恐龙2!G11*1.2</f>
+        <f>dinosaurs!G11*1.2</f>
         <v>36</v>
       </c>
       <c r="L11" s="2">
-        <f>恐龙2!H11*1.2</f>
+        <f>dinosaurs!H11*1.2</f>
         <v>12</v>
       </c>
       <c r="M11" s="2">
-        <f>恐龙2!I11*0.8</f>
+        <f>dinosaurs!I11*0.8</f>
         <v>5.6000000000000005</v>
       </c>
       <c r="N11" s="2">
-        <f>恐龙2!I11*1.2</f>
+        <f>dinosaurs!I11*1.2</f>
         <v>8.4</v>
       </c>
       <c r="O11" s="2">
-        <f>恐龙2!J11*0.8</f>
+        <f>dinosaurs!J11*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P11" s="2">
-        <f>恐龙2!J11*1.2</f>
+        <f>dinosaurs!J11*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q11" s="2">
-        <f>恐龙2!K11*0.8</f>
+        <f>dinosaurs!K11*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="R11" s="2">
-        <f>恐龙2!K11*1.2</f>
+        <f>dinosaurs!K11*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="S11" s="2">
-        <f>恐龙2!L11*0.8</f>
+        <f>dinosaurs!L11*0.8</f>
         <v>1.6</v>
       </c>
       <c r="T11" s="2">
-        <f>恐龙2!L11*1.2</f>
+        <f>dinosaurs!L11*1.2</f>
         <v>2.4</v>
       </c>
       <c r="U11" s="2">
@@ -1924,67 +1967,67 @@
         <v>38</v>
       </c>
       <c r="E12" s="2">
-        <f>恐龙2!E12*0.8</f>
+        <f>dinosaurs!E12*0.8</f>
         <v>24</v>
       </c>
       <c r="F12" s="2">
-        <f>恐龙2!F12*0.8</f>
+        <f>dinosaurs!F12*0.8</f>
         <v>14.4</v>
       </c>
       <c r="G12" s="2">
-        <f>恐龙2!G12*0.8</f>
+        <f>dinosaurs!G12*0.8</f>
         <v>14.4</v>
       </c>
       <c r="H12" s="2">
-        <f>恐龙2!H12*0.8</f>
+        <f>dinosaurs!H12*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I12" s="2">
-        <f>恐龙2!E12*1.2</f>
+        <f>dinosaurs!E12*1.2</f>
         <v>36</v>
       </c>
       <c r="J12" s="2">
-        <f>恐龙2!F12*1.2</f>
+        <f>dinosaurs!F12*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="K12" s="2">
-        <f>恐龙2!G12*1.2</f>
+        <f>dinosaurs!G12*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="L12" s="2">
-        <f>恐龙2!H12*1.2</f>
+        <f>dinosaurs!H12*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M12" s="2">
-        <f>恐龙2!I12*0.8</f>
+        <f>dinosaurs!I12*0.8</f>
         <v>4.8000000000000007</v>
       </c>
       <c r="N12" s="2">
-        <f>恐龙2!I12*1.2</f>
+        <f>dinosaurs!I12*1.2</f>
         <v>7.1999999999999993</v>
       </c>
       <c r="O12" s="2">
-        <f>恐龙2!J12*0.8</f>
+        <f>dinosaurs!J12*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="P12" s="2">
-        <f>恐龙2!J12*1.2</f>
+        <f>dinosaurs!J12*1.2</f>
         <v>3.36</v>
       </c>
       <c r="Q12" s="2">
-        <f>恐龙2!K12*0.8</f>
+        <f>dinosaurs!K12*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="R12" s="2">
-        <f>恐龙2!K12*1.2</f>
+        <f>dinosaurs!K12*1.2</f>
         <v>3.36</v>
       </c>
       <c r="S12" s="2">
-        <f>恐龙2!L12*0.8</f>
+        <f>dinosaurs!L12*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="T12" s="2">
-        <f>恐龙2!L12*1.2</f>
+        <f>dinosaurs!L12*1.2</f>
         <v>2.64</v>
       </c>
       <c r="U12" s="2">
@@ -2017,67 +2060,67 @@
         <v>51</v>
       </c>
       <c r="E13" s="2">
-        <f>恐龙2!E13*0.8</f>
+        <f>dinosaurs!E13*0.8</f>
         <v>32</v>
       </c>
       <c r="F13" s="2">
-        <f>恐龙2!F13*0.8</f>
+        <f>dinosaurs!F13*0.8</f>
         <v>12.8</v>
       </c>
       <c r="G13" s="2">
-        <f>恐龙2!G13*0.8</f>
+        <f>dinosaurs!G13*0.8</f>
         <v>14.4</v>
       </c>
       <c r="H13" s="2">
-        <f>恐龙2!H13*0.8</f>
+        <f>dinosaurs!H13*0.8</f>
         <v>8</v>
       </c>
       <c r="I13" s="2">
-        <f>恐龙2!E13*1.2</f>
+        <f>dinosaurs!E13*1.2</f>
         <v>48</v>
       </c>
       <c r="J13" s="2">
-        <f>恐龙2!F13*1.2</f>
+        <f>dinosaurs!F13*1.2</f>
         <v>19.2</v>
       </c>
       <c r="K13" s="2">
-        <f>恐龙2!G13*1.2</f>
+        <f>dinosaurs!G13*1.2</f>
         <v>21.599999999999998</v>
       </c>
       <c r="L13" s="2">
-        <f>恐龙2!H13*1.2</f>
+        <f>dinosaurs!H13*1.2</f>
         <v>12</v>
       </c>
       <c r="M13" s="2">
-        <f>恐龙2!I13*0.8</f>
+        <f>dinosaurs!I13*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N13" s="2">
-        <f>恐龙2!I13*1.2</f>
+        <f>dinosaurs!I13*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O13" s="2">
-        <f>恐龙2!J13*0.8</f>
+        <f>dinosaurs!J13*0.8</f>
         <v>2.08</v>
       </c>
       <c r="P13" s="2">
-        <f>恐龙2!J13*1.2</f>
+        <f>dinosaurs!J13*1.2</f>
         <v>3.12</v>
       </c>
       <c r="Q13" s="2">
-        <f>恐龙2!K13*0.8</f>
+        <f>dinosaurs!K13*0.8</f>
         <v>2.2399999999999998</v>
       </c>
       <c r="R13" s="2">
-        <f>恐龙2!K13*1.2</f>
+        <f>dinosaurs!K13*1.2</f>
         <v>3.36</v>
       </c>
       <c r="S13" s="2">
-        <f>恐龙2!L13*0.8</f>
+        <f>dinosaurs!L13*0.8</f>
         <v>1.6</v>
       </c>
       <c r="T13" s="2">
-        <f>恐龙2!L13*1.2</f>
+        <f>dinosaurs!L13*1.2</f>
         <v>2.4</v>
       </c>
       <c r="U13" s="2">
@@ -2110,67 +2153,67 @@
         <v>42</v>
       </c>
       <c r="E14" s="2">
-        <f>恐龙2!E14*0.8</f>
+        <f>dinosaurs!E14*0.8</f>
         <v>32</v>
       </c>
       <c r="F14" s="2">
-        <f>恐龙2!F14*0.8</f>
+        <f>dinosaurs!F14*0.8</f>
         <v>16</v>
       </c>
       <c r="G14" s="2">
-        <f>恐龙2!G14*0.8</f>
+        <f>dinosaurs!G14*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="H14" s="2">
-        <f>恐龙2!H14*0.8</f>
+        <f>dinosaurs!H14*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="I14" s="2">
-        <f>恐龙2!E14*1.2</f>
+        <f>dinosaurs!E14*1.2</f>
         <v>48</v>
       </c>
       <c r="J14" s="2">
-        <f>恐龙2!F14*1.2</f>
+        <f>dinosaurs!F14*1.2</f>
         <v>24</v>
       </c>
       <c r="K14" s="2">
-        <f>恐龙2!G14*1.2</f>
+        <f>dinosaurs!G14*1.2</f>
         <v>16.8</v>
       </c>
       <c r="L14" s="2">
-        <f>恐龙2!H14*1.2</f>
+        <f>dinosaurs!H14*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="M14" s="2">
-        <f>恐龙2!I14*0.8</f>
+        <f>dinosaurs!I14*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N14" s="2">
-        <f>恐龙2!I14*1.2</f>
+        <f>dinosaurs!I14*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O14" s="2">
-        <f>恐龙2!J14*0.8</f>
+        <f>dinosaurs!J14*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P14" s="2">
-        <f>恐龙2!J14*1.2</f>
+        <f>dinosaurs!J14*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q14" s="2">
-        <f>恐龙2!K14*0.8</f>
+        <f>dinosaurs!K14*0.8</f>
         <v>1.92</v>
       </c>
       <c r="R14" s="2">
-        <f>恐龙2!K14*1.2</f>
+        <f>dinosaurs!K14*1.2</f>
         <v>2.88</v>
       </c>
       <c r="S14" s="2">
-        <f>恐龙2!L14*0.8</f>
+        <f>dinosaurs!L14*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="T14" s="2">
-        <f>恐龙2!L14*1.2</f>
+        <f>dinosaurs!L14*1.2</f>
         <v>2.64</v>
       </c>
       <c r="U14" s="2">
@@ -2203,67 +2246,67 @@
         <v>104</v>
       </c>
       <c r="E15" s="2">
-        <f>恐龙2!E15*0.8</f>
+        <f>dinosaurs!E15*0.8</f>
         <v>48</v>
       </c>
       <c r="F15" s="2">
-        <f>恐龙2!F15*0.8</f>
+        <f>dinosaurs!F15*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="G15" s="2">
-        <f>恐龙2!G15*0.8</f>
+        <f>dinosaurs!G15*0.8</f>
         <v>16</v>
       </c>
       <c r="H15" s="2">
-        <f>恐龙2!H15*0.8</f>
+        <f>dinosaurs!H15*0.8</f>
         <v>3.2</v>
       </c>
       <c r="I15" s="2">
-        <f>恐龙2!E15*1.2</f>
+        <f>dinosaurs!E15*1.2</f>
         <v>72</v>
       </c>
       <c r="J15" s="2">
-        <f>恐龙2!F15*1.2</f>
+        <f>dinosaurs!F15*1.2</f>
         <v>16.8</v>
       </c>
       <c r="K15" s="2">
-        <f>恐龙2!G15*1.2</f>
+        <f>dinosaurs!G15*1.2</f>
         <v>24</v>
       </c>
       <c r="L15" s="2">
-        <f>恐龙2!H15*1.2</f>
+        <f>dinosaurs!H15*1.2</f>
         <v>4.8</v>
       </c>
       <c r="M15" s="2">
-        <f>恐龙2!I15*0.8</f>
+        <f>dinosaurs!I15*0.8</f>
         <v>8</v>
       </c>
       <c r="N15" s="2">
-        <f>恐龙2!I15*1.2</f>
+        <f>dinosaurs!I15*1.2</f>
         <v>12</v>
       </c>
       <c r="O15" s="2">
-        <f>恐龙2!J15*0.8</f>
+        <f>dinosaurs!J15*0.8</f>
         <v>1.92</v>
       </c>
       <c r="P15" s="2">
-        <f>恐龙2!J15*1.2</f>
+        <f>dinosaurs!J15*1.2</f>
         <v>2.88</v>
       </c>
       <c r="Q15" s="2">
-        <f>恐龙2!K15*0.8</f>
+        <f>dinosaurs!K15*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="R15" s="2">
-        <f>恐龙2!K15*1.2</f>
+        <f>dinosaurs!K15*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="S15" s="2">
-        <f>恐龙2!L15*0.8</f>
+        <f>dinosaurs!L15*0.8</f>
         <v>1.1199999999999999</v>
       </c>
       <c r="T15" s="2">
-        <f>恐龙2!L15*1.2</f>
+        <f>dinosaurs!L15*1.2</f>
         <v>1.68</v>
       </c>
       <c r="U15" s="2">
@@ -2296,67 +2339,67 @@
         <v>76</v>
       </c>
       <c r="E16" s="2">
-        <f>恐龙2!E16*0.8</f>
+        <f>dinosaurs!E16*0.8</f>
         <v>32</v>
       </c>
       <c r="F16" s="2">
-        <f>恐龙2!F16*0.8</f>
+        <f>dinosaurs!F16*0.8</f>
         <v>16</v>
       </c>
       <c r="G16" s="2">
-        <f>恐龙2!G16*0.8</f>
+        <f>dinosaurs!G16*0.8</f>
         <v>9.6000000000000014</v>
       </c>
       <c r="H16" s="2">
-        <f>恐龙2!H16*0.8</f>
+        <f>dinosaurs!H16*0.8</f>
         <v>11.200000000000001</v>
       </c>
       <c r="I16" s="2">
-        <f>恐龙2!E16*1.2</f>
+        <f>dinosaurs!E16*1.2</f>
         <v>48</v>
       </c>
       <c r="J16" s="2">
-        <f>恐龙2!F16*1.2</f>
+        <f>dinosaurs!F16*1.2</f>
         <v>24</v>
       </c>
       <c r="K16" s="2">
-        <f>恐龙2!G16*1.2</f>
+        <f>dinosaurs!G16*1.2</f>
         <v>14.399999999999999</v>
       </c>
       <c r="L16" s="2">
-        <f>恐龙2!H16*1.2</f>
+        <f>dinosaurs!H16*1.2</f>
         <v>16.8</v>
       </c>
       <c r="M16" s="2">
-        <f>恐龙2!I16*0.8</f>
+        <f>dinosaurs!I16*0.8</f>
         <v>6.4</v>
       </c>
       <c r="N16" s="2">
-        <f>恐龙2!I16*1.2</f>
+        <f>dinosaurs!I16*1.2</f>
         <v>9.6</v>
       </c>
       <c r="O16" s="2">
-        <f>恐龙2!J16*0.8</f>
+        <f>dinosaurs!J16*0.8</f>
         <v>2.4000000000000004</v>
       </c>
       <c r="P16" s="2">
-        <f>恐龙2!J16*1.2</f>
+        <f>dinosaurs!J16*1.2</f>
         <v>3.5999999999999996</v>
       </c>
       <c r="Q16" s="2">
-        <f>恐龙2!K16*0.8</f>
+        <f>dinosaurs!K16*0.8</f>
         <v>1.7600000000000002</v>
       </c>
       <c r="R16" s="2">
-        <f>恐龙2!K16*1.2</f>
+        <f>dinosaurs!K16*1.2</f>
         <v>2.64</v>
       </c>
       <c r="S16" s="2">
-        <f>恐龙2!L16*0.8</f>
+        <f>dinosaurs!L16*0.8</f>
         <v>1.92</v>
       </c>
       <c r="T16" s="2">
-        <f>恐龙2!L16*1.2</f>
+        <f>dinosaurs!L16*1.2</f>
         <v>2.88</v>
       </c>
       <c r="U16" s="2">
@@ -2388,10 +2431,904 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:U10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="2">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="L2" s="2">
+        <v>3</v>
+      </c>
+      <c r="M2" s="2">
+        <v>3600</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" s="2">
+        <v>3</v>
+      </c>
+      <c r="P2" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>3600</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2">
+        <v>25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2">
+        <v>18</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="K3" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>10800</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="2">
+        <v>5</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>7200</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="2">
+        <v>50</v>
+      </c>
+      <c r="F4" s="2">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>4</v>
+      </c>
+      <c r="I4" s="2">
+        <v>10</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>43200</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="2">
+        <v>10</v>
+      </c>
+      <c r="P4" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>10800</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2">
+        <v>8</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M5" s="2">
+        <v>21600</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="2">
+        <v>8</v>
+      </c>
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>7200</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>6</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K6" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="L6" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10800</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>3600</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="M7" s="2">
+        <v>43200</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="2">
+        <v>8</v>
+      </c>
+      <c r="P7" s="2">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7200</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2">
+        <v>30</v>
+      </c>
+      <c r="F8" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2">
+        <v>18</v>
+      </c>
+      <c r="I8" s="2">
+        <v>6</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="M8" s="2">
+        <v>10800</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2">
+        <v>8</v>
+      </c>
+      <c r="P8" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>3600</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="2">
+        <v>25</v>
+      </c>
+      <c r="F9" s="2">
+        <v>18</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2">
+        <v>20</v>
+      </c>
+      <c r="I9" s="2">
+        <v>6</v>
+      </c>
+      <c r="J9" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3</v>
+      </c>
+      <c r="M9" s="2">
+        <v>21600</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="2">
+        <v>6</v>
+      </c>
+      <c r="P9" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3600</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="2">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>3</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="M10" s="2">
+        <v>43200</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" s="2">
+        <v>8</v>
+      </c>
+      <c r="P10" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45</v>
+      </c>
+      <c r="F11" s="2">
+        <v>20</v>
+      </c>
+      <c r="G11" s="2">
+        <v>30</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2">
+        <v>7</v>
+      </c>
+      <c r="J11" s="2">
+        <v>3</v>
+      </c>
+      <c r="K11" s="2">
+        <v>3</v>
+      </c>
+      <c r="L11" s="2">
+        <v>2</v>
+      </c>
+      <c r="M11" s="2">
+        <v>86400</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O11" s="2">
+        <v>12</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>18</v>
+      </c>
+      <c r="G12" s="2">
+        <v>18</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="L12" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M12" s="2">
+        <v>86400</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O12" s="2">
+        <v>8</v>
+      </c>
+      <c r="P12" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="2">
+        <v>40</v>
+      </c>
+      <c r="F13" s="2">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2">
+        <v>18</v>
+      </c>
+      <c r="H13" s="2">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="L13" s="2">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>86400</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="O13" s="2">
+        <v>8</v>
+      </c>
+      <c r="P13" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="2">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2">
+        <v>20</v>
+      </c>
+      <c r="G14" s="2">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2">
+        <v>3</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="L14" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M14" s="2">
+        <v>172800</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="O14" s="2">
+        <v>8</v>
+      </c>
+      <c r="P14" s="2">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="2">
+        <v>60</v>
+      </c>
+      <c r="F15" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2">
+        <v>20</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="K15" s="2">
+        <v>3</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="M15" s="2">
+        <v>172800</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="O15" s="2">
+        <v>12</v>
+      </c>
+      <c r="P15" s="2">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="2">
+        <v>40</v>
+      </c>
+      <c r="F16" s="2">
+        <v>20</v>
+      </c>
+      <c r="G16" s="2">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2">
+        <v>14</v>
+      </c>
+      <c r="I16" s="2">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2">
+        <v>3</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2.4</v>
+      </c>
+      <c r="M16" s="2">
+        <v>172800</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O16" s="2">
+        <v>12</v>
+      </c>
+      <c r="P16" s="2">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>7200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2877,7 +3814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
@@ -3342,876 +4279,95 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A2" sqref="A2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12</v>
-      </c>
-      <c r="G2" s="2">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2">
-        <v>20</v>
-      </c>
-      <c r="I2" s="2">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="L2" s="2">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2">
-        <v>3600</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="2">
-        <v>3</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="2">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2">
-        <v>18</v>
-      </c>
-      <c r="I3" s="2">
-        <v>8</v>
-      </c>
-      <c r="J3" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="M3" s="2">
-        <v>10800</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" s="2">
-        <v>5</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="2">
-        <v>50</v>
-      </c>
-      <c r="F4" s="2">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2">
-        <v>10</v>
-      </c>
-      <c r="H4" s="2">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2">
-        <v>10</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2</v>
-      </c>
-      <c r="L4" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="M4" s="2">
-        <v>43200</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="O4" s="2">
-        <v>10</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="2">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2">
-        <v>10</v>
-      </c>
-      <c r="H5" s="2">
-        <v>14</v>
-      </c>
-      <c r="I5" s="2">
-        <v>8</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="M5" s="2">
-        <v>21600</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="O5" s="2">
-        <v>8</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" s="2">
-        <v>20</v>
-      </c>
-      <c r="F6" s="2">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" s="2">
-        <v>12</v>
-      </c>
-      <c r="I6" s="2">
-        <v>6</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="L6" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M6" s="2">
-        <v>10800</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O6" s="2">
-        <v>6</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="2">
-        <v>25</v>
-      </c>
-      <c r="F7" s="2">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2">
-        <v>10</v>
-      </c>
-      <c r="H7" s="2">
-        <v>16</v>
-      </c>
-      <c r="I7" s="2">
-        <v>7</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="M7" s="2">
-        <v>43200</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O7" s="2">
-        <v>8</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2">
-        <v>30</v>
-      </c>
-      <c r="F8" s="2">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2">
-        <v>18</v>
-      </c>
-      <c r="H8" s="2">
-        <v>18</v>
-      </c>
-      <c r="I8" s="2">
-        <v>6</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="K8" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="L8" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="M8" s="2">
-        <v>10800</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="O8" s="2">
-        <v>8</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="2">
-        <v>25</v>
-      </c>
-      <c r="F9" s="2">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2">
-        <v>20</v>
-      </c>
-      <c r="I9" s="2">
-        <v>6</v>
-      </c>
-      <c r="J9" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="K9" s="2">
-        <v>2</v>
-      </c>
-      <c r="L9" s="2">
-        <v>3</v>
-      </c>
-      <c r="M9" s="2">
-        <v>21600</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="2">
-        <v>6</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2">
-        <v>40</v>
-      </c>
-      <c r="F10" s="2">
-        <v>20</v>
-      </c>
-      <c r="G10" s="2">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2">
-        <v>12</v>
-      </c>
-      <c r="I10" s="2">
-        <v>8</v>
-      </c>
-      <c r="J10" s="2">
-        <v>3</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="M10" s="2">
-        <v>43200</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O10" s="2">
-        <v>8</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="2">
-        <v>45</v>
-      </c>
-      <c r="F11" s="2">
-        <v>20</v>
-      </c>
-      <c r="G11" s="2">
-        <v>30</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="2">
-        <v>7</v>
-      </c>
-      <c r="J11" s="2">
-        <v>3</v>
-      </c>
-      <c r="K11" s="2">
-        <v>3</v>
-      </c>
-      <c r="L11" s="2">
-        <v>2</v>
-      </c>
-      <c r="M11" s="2">
-        <v>86400</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="O11" s="2">
-        <v>12</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="2">
-        <v>30</v>
-      </c>
-      <c r="F12" s="2">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2">
-        <v>18</v>
-      </c>
-      <c r="H12" s="2">
-        <v>12</v>
-      </c>
-      <c r="I12" s="2">
-        <v>6</v>
-      </c>
-      <c r="J12" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="K12" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="L12" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M12" s="2">
-        <v>86400</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="2">
-        <v>8</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="2">
-        <v>40</v>
-      </c>
-      <c r="F13" s="2">
-        <v>16</v>
-      </c>
-      <c r="G13" s="2">
-        <v>18</v>
-      </c>
-      <c r="H13" s="2">
-        <v>10</v>
-      </c>
-      <c r="I13" s="2">
-        <v>8</v>
-      </c>
-      <c r="J13" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="K13" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="L13" s="2">
-        <v>2</v>
-      </c>
-      <c r="M13" s="2">
-        <v>86400</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="O13" s="2">
-        <v>8</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="2">
-        <v>40</v>
-      </c>
-      <c r="F14" s="2">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2">
-        <v>12</v>
-      </c>
-      <c r="I14" s="2">
-        <v>8</v>
-      </c>
-      <c r="J14" s="2">
-        <v>3</v>
-      </c>
-      <c r="K14" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="L14" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="M14" s="2">
-        <v>172800</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="O14" s="2">
-        <v>8</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="2">
-        <v>60</v>
-      </c>
-      <c r="F15" s="2">
-        <v>14</v>
-      </c>
-      <c r="G15" s="2">
-        <v>20</v>
-      </c>
-      <c r="H15" s="2">
-        <v>4</v>
-      </c>
-      <c r="I15" s="2">
-        <v>10</v>
-      </c>
-      <c r="J15" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="K15" s="2">
-        <v>3</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="M15" s="2">
-        <v>172800</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="O15" s="2">
-        <v>12</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>10800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="2">
-        <v>40</v>
-      </c>
-      <c r="F16" s="2">
-        <v>20</v>
-      </c>
-      <c r="G16" s="2">
-        <v>12</v>
-      </c>
-      <c r="H16" s="2">
-        <v>14</v>
-      </c>
-      <c r="I16" s="2">
-        <v>8</v>
-      </c>
-      <c r="J16" s="2">
-        <v>3</v>
-      </c>
-      <c r="K16" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="L16" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="M16" s="2">
-        <v>172800</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="O16" s="2">
-        <v>12</v>
-      </c>
-      <c r="P16" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>7200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/const/game_numerics/dinosaurs.xlsx
+++ b/const/game_numerics/dinosaurs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1060" windowWidth="32000" windowHeight="18360" activeTab="1"/>
+    <workbookView xWindow="1620" yWindow="1100" windowWidth="32000" windowHeight="18360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="恐龙" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="122">
   <si>
     <t>No</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -567,8 +567,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,15 +628,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -921,7 +945,7 @@
   <dimension ref="A1:Y16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A18" sqref="A18:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2421,6 +2445,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2431,14 +2456,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:U10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
@@ -2511,8 +2537,8 @@
       <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
+      <c r="D2" s="2">
+        <v>1</v>
       </c>
       <c r="E2" s="2">
         <v>20</v>
@@ -2566,8 +2592,8 @@
       <c r="C3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
+      <c r="D3" s="2">
+        <v>2</v>
       </c>
       <c r="E3" s="2">
         <v>25</v>
@@ -2621,8 +2647,8 @@
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>33</v>
+      <c r="D4" s="2">
+        <v>3</v>
       </c>
       <c r="E4" s="2">
         <v>50</v>
@@ -2676,8 +2702,8 @@
       <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
+      <c r="D5" s="2">
+        <v>4</v>
       </c>
       <c r="E5" s="2">
         <v>25</v>
@@ -2731,8 +2757,8 @@
       <c r="C6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>42</v>
+      <c r="D6" s="2">
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <v>20</v>
@@ -2786,8 +2812,8 @@
       <c r="C7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>60</v>
+      <c r="D7" s="2">
+        <v>6</v>
       </c>
       <c r="E7" s="2">
         <v>25</v>
@@ -2841,8 +2867,8 @@
       <c r="C8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
+      <c r="D8" s="2">
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>30</v>
@@ -2896,8 +2922,8 @@
       <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
+      <c r="D9" s="2">
+        <v>8</v>
       </c>
       <c r="E9" s="2">
         <v>25</v>
@@ -2951,8 +2977,8 @@
       <c r="C10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
+      <c r="D10" s="2">
+        <v>6</v>
       </c>
       <c r="E10" s="2">
         <v>40</v>
@@ -3004,8 +3030,8 @@
       <c r="C11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>63</v>
+      <c r="D11" s="2">
+        <v>2</v>
       </c>
       <c r="E11" s="2">
         <v>45</v>
@@ -3057,8 +3083,8 @@
       <c r="C12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>38</v>
+      <c r="D12" s="2">
+        <v>4</v>
       </c>
       <c r="E12" s="2">
         <v>30</v>
@@ -3110,8 +3136,8 @@
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>51</v>
+      <c r="D13" s="2">
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>40</v>
@@ -3163,8 +3189,8 @@
       <c r="C14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>42</v>
+      <c r="D14" s="2">
+        <v>5</v>
       </c>
       <c r="E14" s="2">
         <v>40</v>
@@ -3216,8 +3242,8 @@
       <c r="C15" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>104</v>
+      <c r="D15" s="2">
+        <v>10</v>
       </c>
       <c r="E15" s="2">
         <v>60</v>
@@ -3269,8 +3295,8 @@
       <c r="C16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>76</v>
+      <c r="D16" s="2">
+        <v>11</v>
       </c>
       <c r="E16" s="2">
         <v>40</v>
@@ -3311,6 +3337,54 @@
       <c r="Q16" s="2">
         <v>7200</v>
       </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3327,7 +3401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
@@ -3357,7 +3431,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f>10*(A2+1)*(A2+1)+10*(A2+1)-10</f>
+        <f t="shared" ref="B3:B34" si="0">10*(A2+1)*(A2+1)+10*(A2+1)-10</f>
         <v>50</v>
       </c>
     </row>
@@ -3366,7 +3440,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f>10*(A3+1)*(A3+1)+10*(A3+1)-10</f>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
     </row>
@@ -3375,7 +3449,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f>10*(A4+1)*(A4+1)+10*(A4+1)-10</f>
+        <f t="shared" si="0"/>
         <v>190</v>
       </c>
     </row>
@@ -3384,7 +3458,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f>10*(A5+1)*(A5+1)+10*(A5+1)-10</f>
+        <f t="shared" si="0"/>
         <v>290</v>
       </c>
     </row>
@@ -3393,7 +3467,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f>10*(A6+1)*(A6+1)+10*(A6+1)-10</f>
+        <f t="shared" si="0"/>
         <v>410</v>
       </c>
     </row>
@@ -3402,7 +3476,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f>10*(A7+1)*(A7+1)+10*(A7+1)-10</f>
+        <f t="shared" si="0"/>
         <v>550</v>
       </c>
     </row>
@@ -3411,7 +3485,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f>10*(A8+1)*(A8+1)+10*(A8+1)-10</f>
+        <f t="shared" si="0"/>
         <v>710</v>
       </c>
     </row>
@@ -3420,7 +3494,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f>10*(A9+1)*(A9+1)+10*(A9+1)-10</f>
+        <f t="shared" si="0"/>
         <v>890</v>
       </c>
     </row>
@@ -3429,7 +3503,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f>10*(A10+1)*(A10+1)+10*(A10+1)-10</f>
+        <f t="shared" si="0"/>
         <v>1090</v>
       </c>
     </row>
@@ -3438,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f>10*(A11+1)*(A11+1)+10*(A11+1)-10</f>
+        <f t="shared" si="0"/>
         <v>1310</v>
       </c>
     </row>
@@ -3447,7 +3521,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f>10*(A12+1)*(A12+1)+10*(A12+1)-10</f>
+        <f t="shared" si="0"/>
         <v>1550</v>
       </c>
     </row>
@@ -3456,7 +3530,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f>10*(A13+1)*(A13+1)+10*(A13+1)-10</f>
+        <f t="shared" si="0"/>
         <v>1810</v>
       </c>
     </row>
@@ -3465,7 +3539,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f>10*(A14+1)*(A14+1)+10*(A14+1)-10</f>
+        <f t="shared" si="0"/>
         <v>2090</v>
       </c>
     </row>
@@ -3474,7 +3548,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f>10*(A15+1)*(A15+1)+10*(A15+1)-10</f>
+        <f t="shared" si="0"/>
         <v>2390</v>
       </c>
     </row>
@@ -3483,7 +3557,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2">
-        <f>10*(A16+1)*(A16+1)+10*(A16+1)-10</f>
+        <f t="shared" si="0"/>
         <v>2710</v>
       </c>
     </row>
@@ -3492,7 +3566,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2">
-        <f>10*(A17+1)*(A17+1)+10*(A17+1)-10</f>
+        <f t="shared" si="0"/>
         <v>3050</v>
       </c>
     </row>
@@ -3501,7 +3575,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2">
-        <f>10*(A18+1)*(A18+1)+10*(A18+1)-10</f>
+        <f t="shared" si="0"/>
         <v>3410</v>
       </c>
     </row>
@@ -3510,7 +3584,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2">
-        <f>10*(A19+1)*(A19+1)+10*(A19+1)-10</f>
+        <f t="shared" si="0"/>
         <v>3790</v>
       </c>
     </row>
@@ -3519,7 +3593,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2">
-        <f>10*(A20+1)*(A20+1)+10*(A20+1)-10</f>
+        <f t="shared" si="0"/>
         <v>4190</v>
       </c>
     </row>
@@ -3528,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2">
-        <f>10*(A21+1)*(A21+1)+10*(A21+1)-10</f>
+        <f t="shared" si="0"/>
         <v>4610</v>
       </c>
     </row>
@@ -3537,7 +3611,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2">
-        <f>10*(A22+1)*(A22+1)+10*(A22+1)-10</f>
+        <f t="shared" si="0"/>
         <v>5050</v>
       </c>
     </row>
@@ -3546,7 +3620,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2">
-        <f>10*(A23+1)*(A23+1)+10*(A23+1)-10</f>
+        <f t="shared" si="0"/>
         <v>5510</v>
       </c>
     </row>
@@ -3555,7 +3629,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2">
-        <f>10*(A24+1)*(A24+1)+10*(A24+1)-10</f>
+        <f t="shared" si="0"/>
         <v>5990</v>
       </c>
     </row>
@@ -3564,7 +3638,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2">
-        <f>10*(A25+1)*(A25+1)+10*(A25+1)-10</f>
+        <f t="shared" si="0"/>
         <v>6490</v>
       </c>
     </row>
@@ -3573,7 +3647,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2">
-        <f>10*(A26+1)*(A26+1)+10*(A26+1)-10</f>
+        <f t="shared" si="0"/>
         <v>7010</v>
       </c>
     </row>
@@ -3582,7 +3656,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2">
-        <f>10*(A27+1)*(A27+1)+10*(A27+1)-10</f>
+        <f t="shared" si="0"/>
         <v>7550</v>
       </c>
     </row>
@@ -3591,7 +3665,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2">
-        <f>10*(A28+1)*(A28+1)+10*(A28+1)-10</f>
+        <f t="shared" si="0"/>
         <v>8110</v>
       </c>
     </row>
@@ -3600,7 +3674,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2">
-        <f>10*(A29+1)*(A29+1)+10*(A29+1)-10</f>
+        <f t="shared" si="0"/>
         <v>8690</v>
       </c>
     </row>
@@ -3609,7 +3683,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2">
-        <f>10*(A30+1)*(A30+1)+10*(A30+1)-10</f>
+        <f t="shared" si="0"/>
         <v>9290</v>
       </c>
     </row>
@@ -3618,7 +3692,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2">
-        <f>10*(A31+1)*(A31+1)+10*(A31+1)-10</f>
+        <f t="shared" si="0"/>
         <v>9910</v>
       </c>
     </row>
@@ -3627,7 +3701,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2">
-        <f>10*(A32+1)*(A32+1)+10*(A32+1)-10</f>
+        <f t="shared" si="0"/>
         <v>10550</v>
       </c>
     </row>
@@ -3636,7 +3710,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2">
-        <f>10*(A33+1)*(A33+1)+10*(A33+1)-10</f>
+        <f t="shared" si="0"/>
         <v>11210</v>
       </c>
     </row>
@@ -3645,7 +3719,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2">
-        <f>10*(A34+1)*(A34+1)+10*(A34+1)-10</f>
+        <f t="shared" ref="B35:B52" si="1">10*(A34+1)*(A34+1)+10*(A34+1)-10</f>
         <v>11890</v>
       </c>
     </row>
@@ -3654,7 +3728,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2">
-        <f>10*(A35+1)*(A35+1)+10*(A35+1)-10</f>
+        <f t="shared" si="1"/>
         <v>12590</v>
       </c>
     </row>
@@ -3663,7 +3737,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2">
-        <f>10*(A36+1)*(A36+1)+10*(A36+1)-10</f>
+        <f t="shared" si="1"/>
         <v>13310</v>
       </c>
     </row>
@@ -3672,7 +3746,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2">
-        <f>10*(A37+1)*(A37+1)+10*(A37+1)-10</f>
+        <f t="shared" si="1"/>
         <v>14050</v>
       </c>
     </row>
@@ -3681,7 +3755,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2">
-        <f>10*(A38+1)*(A38+1)+10*(A38+1)-10</f>
+        <f t="shared" si="1"/>
         <v>14810</v>
       </c>
     </row>
@@ -3690,7 +3764,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2">
-        <f>10*(A39+1)*(A39+1)+10*(A39+1)-10</f>
+        <f t="shared" si="1"/>
         <v>15590</v>
       </c>
     </row>
@@ -3699,7 +3773,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2">
-        <f>10*(A40+1)*(A40+1)+10*(A40+1)-10</f>
+        <f t="shared" si="1"/>
         <v>16390</v>
       </c>
     </row>
@@ -3708,7 +3782,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2">
-        <f>10*(A41+1)*(A41+1)+10*(A41+1)-10</f>
+        <f t="shared" si="1"/>
         <v>17210</v>
       </c>
     </row>
@@ -3717,7 +3791,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2">
-        <f>10*(A42+1)*(A42+1)+10*(A42+1)-10</f>
+        <f t="shared" si="1"/>
         <v>18050</v>
       </c>
     </row>
@@ -3726,7 +3800,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2">
-        <f>10*(A43+1)*(A43+1)+10*(A43+1)-10</f>
+        <f t="shared" si="1"/>
         <v>18910</v>
       </c>
     </row>
@@ -3735,7 +3809,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2">
-        <f>10*(A44+1)*(A44+1)+10*(A44+1)-10</f>
+        <f t="shared" si="1"/>
         <v>19790</v>
       </c>
     </row>
@@ -3744,7 +3818,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2">
-        <f>10*(A45+1)*(A45+1)+10*(A45+1)-10</f>
+        <f t="shared" si="1"/>
         <v>20690</v>
       </c>
     </row>
@@ -3753,7 +3827,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2">
-        <f>10*(A46+1)*(A46+1)+10*(A46+1)-10</f>
+        <f t="shared" si="1"/>
         <v>21610</v>
       </c>
     </row>
@@ -3762,7 +3836,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2">
-        <f>10*(A47+1)*(A47+1)+10*(A47+1)-10</f>
+        <f t="shared" si="1"/>
         <v>22550</v>
       </c>
     </row>
@@ -3771,7 +3845,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2">
-        <f>10*(A48+1)*(A48+1)+10*(A48+1)-10</f>
+        <f t="shared" si="1"/>
         <v>23510</v>
       </c>
     </row>
@@ -3780,7 +3854,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2">
-        <f>10*(A49+1)*(A49+1)+10*(A49+1)-10</f>
+        <f t="shared" si="1"/>
         <v>24490</v>
       </c>
     </row>
@@ -3789,7 +3863,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2">
-        <f>10*(A50+1)*(A50+1)+10*(A50+1)-10</f>
+        <f t="shared" si="1"/>
         <v>25490</v>
       </c>
     </row>
@@ -3798,7 +3872,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2">
-        <f>10*(A51+1)*(A51+1)+10*(A51+1)-10</f>
+        <f t="shared" si="1"/>
         <v>26510</v>
       </c>
     </row>
@@ -3818,8 +3892,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3931,7 +4005,9 @@
       <c r="H4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
@@ -3956,7 +4032,9 @@
       <c r="H5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -4029,6 +4107,9 @@
       <c r="H8" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="I8" s="2">
+        <v>1</v>
+      </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -4051,6 +4132,9 @@
       <c r="H9" s="2" t="s">
         <v>92</v>
       </c>
+      <c r="I9" s="2">
+        <v>1</v>
+      </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -4098,7 +4182,9 @@
       <c r="H11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I11" s="2"/>
+      <c r="I11" s="2">
+        <v>1</v>
+      </c>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
@@ -4121,7 +4207,9 @@
       <c r="H12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2">
+        <v>1</v>
+      </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
@@ -4271,6 +4359,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
